--- a/dist/coordinates.xlsx
+++ b/dist/coordinates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sakar\PycharmProjects\FLConverter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sakar\PycharmProjects\FLConverter\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CFA328-B176-4237-AFF4-D57B959AC576}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623A5B3D-E285-40FA-A4FA-DA46A029F6A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5370" yWindow="2040" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ANLIOSTASIO" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>A/A</t>
-  </si>
-  <si>
-    <t>Μοίρες/Λεπτά/Δευτερόλεπτα</t>
-  </si>
-  <si>
-    <t>hatt (wgs84 )</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ΕΓΣΑ 87</t>
   </si>
   <si>
     <t>X (Γ. Μήκος)</t>
@@ -79,11 +70,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -427,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="H3:K13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,51 +435,57 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="3" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="3" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="4"/>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>31</v>
+      </c>
+      <c r="D2">
+        <v>24.49</v>
+      </c>
+      <c r="E2">
+        <v>21</v>
+      </c>
+      <c r="F2">
+        <v>41</v>
+      </c>
+      <c r="G2">
+        <v>4.34</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>40</v>
@@ -496,7 +494,7 @@
         <v>31</v>
       </c>
       <c r="D3">
-        <v>24.49</v>
+        <v>24.21</v>
       </c>
       <c r="E3">
         <v>21</v>
@@ -505,14 +503,14 @@
         <v>41</v>
       </c>
       <c r="G3">
-        <v>4.34</v>
+        <v>4.38</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>40</v>
@@ -521,7 +519,7 @@
         <v>31</v>
       </c>
       <c r="D4">
-        <v>24.21</v>
+        <v>24.19</v>
       </c>
       <c r="E4">
         <v>21</v>
@@ -530,14 +528,14 @@
         <v>41</v>
       </c>
       <c r="G4">
-        <v>4.38</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>40</v>
@@ -546,23 +544,23 @@
         <v>31</v>
       </c>
       <c r="D5">
-        <v>24.19</v>
+        <v>25.85</v>
       </c>
       <c r="E5">
         <v>21</v>
       </c>
       <c r="F5">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5">
-        <v>4.1500000000000004</v>
+        <v>59.87</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>40</v>
@@ -571,7 +569,7 @@
         <v>31</v>
       </c>
       <c r="D6">
-        <v>25.85</v>
+        <v>25.73</v>
       </c>
       <c r="E6">
         <v>21</v>
@@ -580,14 +578,14 @@
         <v>40</v>
       </c>
       <c r="G6">
-        <v>59.87</v>
+        <v>59.84</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>40</v>
@@ -596,7 +594,7 @@
         <v>31</v>
       </c>
       <c r="D7">
-        <v>25.73</v>
+        <v>25.72</v>
       </c>
       <c r="E7">
         <v>21</v>
@@ -605,14 +603,14 @@
         <v>40</v>
       </c>
       <c r="G7">
-        <v>59.84</v>
+        <v>59.71</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>40</v>
@@ -621,7 +619,7 @@
         <v>31</v>
       </c>
       <c r="D8">
-        <v>25.72</v>
+        <v>25.63</v>
       </c>
       <c r="E8">
         <v>21</v>
@@ -637,7 +635,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>40</v>
@@ -646,7 +644,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>25.63</v>
+        <v>25.52</v>
       </c>
       <c r="E9">
         <v>21</v>
@@ -655,14 +653,14 @@
         <v>40</v>
       </c>
       <c r="G9">
-        <v>59.71</v>
+        <v>59.74</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>40</v>
@@ -671,7 +669,7 @@
         <v>31</v>
       </c>
       <c r="D10">
-        <v>25.52</v>
+        <v>25.5</v>
       </c>
       <c r="E10">
         <v>21</v>
@@ -680,14 +678,14 @@
         <v>40</v>
       </c>
       <c r="G10">
-        <v>59.74</v>
+        <v>59.7</v>
       </c>
       <c r="H10"/>
       <c r="I10"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>40</v>
@@ -696,7 +694,7 @@
         <v>31</v>
       </c>
       <c r="D11">
-        <v>25.5</v>
+        <v>24.27</v>
       </c>
       <c r="E11">
         <v>21</v>
@@ -705,14 +703,14 @@
         <v>40</v>
       </c>
       <c r="G11">
-        <v>59.7</v>
+        <v>59.45</v>
       </c>
       <c r="H11"/>
       <c r="I11"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>40</v>
@@ -730,44 +728,15 @@
         <v>40</v>
       </c>
       <c r="G12">
-        <v>59.45</v>
+        <v>59.36</v>
       </c>
       <c r="H12"/>
       <c r="I12"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>40</v>
-      </c>
-      <c r="C13">
-        <v>31</v>
-      </c>
-      <c r="D13">
-        <v>24.27</v>
-      </c>
-      <c r="E13">
-        <v>21</v>
-      </c>
-      <c r="F13">
-        <v>40</v>
-      </c>
-      <c r="G13">
-        <v>59.36</v>
-      </c>
-      <c r="H13"/>
-      <c r="I13"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:I1"/>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
